--- a/InputData/elec/CBCpUC/Chemical Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/CBCpUC/Chemical Battery Cost per Unit Cap.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Calculations" sheetId="1" r:id="rId2"/>
     <sheet name="CBCpUC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -32,19 +27,10 @@
     <t>$2012/kW</t>
   </si>
   <si>
-    <t>2010--&gt;2012</t>
-  </si>
-  <si>
-    <t>Source: CPI Calculator, http://data.bls.gov/cgi-bin/cpicalc.pl</t>
-  </si>
-  <si>
     <t>$/kWh</t>
   </si>
   <si>
     <t>Frequency Regulation and Renewables Integration Grid Scale Lithium Ion Battery Storage Capacity Cost</t>
-  </si>
-  <si>
-    <t>Inflation Rate</t>
   </si>
   <si>
     <t>Cost Curve for Grid-Scale Lithium Ion Storage</t>
@@ -160,6 +146,15 @@
   <si>
     <t>CBCpUC Chemical Battery Cost per Unit Capacity</t>
   </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +215,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -241,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -249,12 +267,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,10 +348,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -293,9 +373,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,11 +571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109693952"/>
-        <c:axId val="111346432"/>
+        <c:axId val="51821184"/>
+        <c:axId val="54686080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109693952"/>
+        <c:axId val="51821184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,12 +632,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111346432"/>
+        <c:crossAx val="54686080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111346432"/>
+        <c:axId val="54686080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109693952"/>
+        <c:crossAx val="51821184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1517,7 +1594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1525,31 +1602,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,27 +1636,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,17 +1666,37 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1613,58 +1710,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2010</v>
       </c>
@@ -1673,7 +1770,7 @@
         <v>433.0387640541885</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
@@ -1682,7 +1779,7 @@
         <v>409.22947853151709</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
@@ -1691,7 +1788,7 @@
         <v>386.3720977709163</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2013</v>
       </c>
@@ -1700,7 +1797,7 @@
         <v>364.4666217721533</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -1709,7 +1806,7 @@
         <v>343.51305053569376</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2015</v>
       </c>
@@ -1718,7 +1815,7 @@
         <v>323.51138406107202</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2016</v>
       </c>
@@ -1727,7 +1824,7 @@
         <v>304.46162234828807</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
@@ -1736,7 +1833,7 @@
         <v>286.36376539757475</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -1744,7 +1841,7 @@
         <v>269.83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2019</v>
       </c>
@@ -1753,7 +1850,7 @@
         <v>253.02376578282565</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -1761,7 +1858,7 @@
         <v>236.56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2021</v>
       </c>
@@ -1770,7 +1867,7 @@
         <v>223.49138521566056</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -1778,7 +1875,7 @@
         <v>210.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2023</v>
       </c>
@@ -1787,7 +1884,7 @@
         <v>197.76662369631231</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2024</v>
       </c>
@@ -1795,7 +1892,7 @@
         <v>186.83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2025</v>
       </c>
@@ -1804,7 +1901,7 @@
         <v>175.84948122501373</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2026</v>
       </c>
@@ -1812,7 +1909,7 @@
         <v>166.37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2027</v>
       </c>
@@ -1821,7 +1918,7 @@
         <v>157.73995780176483</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2028</v>
       </c>
@@ -1829,7 +1926,7 @@
         <v>149.96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2029</v>
       </c>
@@ -1838,7 +1935,7 @@
         <v>143.4380534265656</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2030</v>
       </c>
@@ -1846,35 +1943,35 @@
         <v>137.68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1886,7 +1983,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1897,407 +1994,386 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>603</v>
       </c>
       <c r="B38">
         <v>2010</v>
       </c>
-      <c r="C38">
-        <f>A38*$B$46</f>
-        <v>633.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="15">
+        <f>A38*About!$A$19</f>
+        <v>636.16499999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>779</v>
       </c>
       <c r="B39">
         <v>2010</v>
       </c>
-      <c r="C39">
-        <f>A39*$B$46</f>
-        <v>817.95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="15">
+        <f>A39*About!$A$19</f>
+        <v>821.84499999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>711</v>
       </c>
       <c r="B40">
         <v>2010</v>
       </c>
-      <c r="C40">
-        <f>A40*$B$46</f>
-        <v>746.55000000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="15">
+        <f>A40*About!$A$19</f>
+        <v>750.1049999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>707</v>
       </c>
       <c r="B41">
         <v>2010</v>
       </c>
-      <c r="C41">
-        <f>A41*$B$46</f>
-        <v>742.35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="15">
+        <f>A41*About!$A$19</f>
+        <v>745.88499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>637</v>
       </c>
       <c r="B42">
         <v>2010</v>
       </c>
-      <c r="C42">
-        <f>A42*$B$46</f>
-        <v>668.85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="1">
+      <c r="C42" s="15">
+        <f>A42*About!$A$19</f>
+        <v>672.03499999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="18">
         <f>AVERAGE(C38:C42)</f>
-        <v>721.77</v>
+        <v>725.20699999999999</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="B46">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="C53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>2010</v>
       </c>
-      <c r="B58" s="12">
-        <f t="shared" ref="B58:B60" si="2">0.475952381*A58^2-1937.6138095236*A58+1972141.58142839</f>
+      <c r="B54" s="12">
+        <f t="shared" ref="B54:B56" si="2">0.475952381*A54^2-1937.6138095236*A54+1972141.58142839</f>
         <v>433.0387640541885</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C54" s="10">
         <f>C43</f>
-        <v>721.77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+        <v>725.20699999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>2011</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B55" s="12">
         <f t="shared" si="2"/>
         <v>409.22947853151709</v>
       </c>
-      <c r="C59" s="11">
-        <f>B59+(C$58-B$58)</f>
-        <v>697.96071447732857</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="C55" s="11">
+        <f>B55+(C$54-B$54)</f>
+        <v>701.39771447732858</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>2012</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B56" s="12">
         <f t="shared" si="2"/>
         <v>386.3720977709163</v>
       </c>
+      <c r="C56" s="11">
+        <f t="shared" ref="C56:C74" si="3">B56+(C$54-B$54)</f>
+        <v>678.54033371672779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B57" s="12">
+        <f>0.475952381*A57^2-1937.6138095236*A57+1972141.58142839</f>
+        <v>364.4666217721533</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" si="3"/>
+        <v>656.63485771796479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B58" s="12">
+        <f t="shared" ref="B58:B61" si="4">0.475952381*A58^2-1937.6138095236*A58+1972141.58142839</f>
+        <v>343.51305053569376</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" si="3"/>
+        <v>635.68128648150525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="12">
+        <f t="shared" si="4"/>
+        <v>323.51138406107202</v>
+      </c>
+      <c r="C59" s="11">
+        <f t="shared" si="3"/>
+        <v>615.67962000688351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B60" s="12">
+        <f t="shared" si="4"/>
+        <v>304.46162234828807</v>
+      </c>
       <c r="C60" s="11">
-        <f t="shared" ref="C60:C78" si="3">B60+(C$58-B$58)</f>
-        <v>675.10333371672778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>596.62985829409956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B61" s="12">
-        <f>0.475952381*A61^2-1937.6138095236*A61+1972141.58142839</f>
-        <v>364.4666217721533</v>
+        <f t="shared" si="4"/>
+        <v>286.36376539757475</v>
       </c>
       <c r="C61" s="11">
         <f t="shared" si="3"/>
-        <v>653.19785771796478</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B62" s="12">
-        <f t="shared" ref="B62:B65" si="4">0.475952381*A62^2-1937.6138095236*A62+1972141.58142839</f>
-        <v>343.51305053569376</v>
+        <v>578.53200134338624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="10">
+        <v>269.83</v>
       </c>
       <c r="C62" s="11">
         <f t="shared" si="3"/>
-        <v>632.24428648150524</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>561.99823594581153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B63" s="12">
-        <f t="shared" si="4"/>
-        <v>323.51138406107202</v>
+        <f t="shared" ref="B63" si="5">0.475952381*A63^2-1937.6138095236*A63+1972141.58142839</f>
+        <v>253.02376578282565</v>
       </c>
       <c r="C63" s="11">
         <f t="shared" si="3"/>
-        <v>612.2426200068835</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B64" s="12">
-        <f t="shared" si="4"/>
-        <v>304.46162234828807</v>
+        <v>545.19200172863714</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2020</v>
+      </c>
+      <c r="B64" s="10">
+        <v>236.56</v>
       </c>
       <c r="C64" s="11">
         <f t="shared" si="3"/>
-        <v>593.19285829409955</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>528.72823594581155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B65" s="12">
-        <f t="shared" si="4"/>
-        <v>286.36376539757475</v>
+        <f t="shared" ref="B65" si="6">0.475952381*A65^2-1937.6138095236*A65+1972141.58142839</f>
+        <v>223.49138521566056</v>
       </c>
       <c r="C65" s="11">
         <f t="shared" si="3"/>
-        <v>575.09500134338623</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>515.65962116147205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B66" s="10">
-        <v>269.83</v>
+        <v>210.4</v>
       </c>
       <c r="C66" s="11">
         <f t="shared" si="3"/>
-        <v>558.5612359458114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>502.56823594581147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" ref="B67" si="5">0.475952381*A67^2-1937.6138095236*A67+1972141.58142839</f>
-        <v>253.02376578282565</v>
+        <f t="shared" ref="B67" si="7">0.475952381*A67^2-1937.6138095236*A67+1972141.58142839</f>
+        <v>197.76662369631231</v>
       </c>
       <c r="C67" s="11">
         <f t="shared" si="3"/>
-        <v>541.75500172863713</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>489.9348596421238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B68" s="10">
-        <v>236.56</v>
+        <v>186.83</v>
       </c>
       <c r="C68" s="11">
         <f t="shared" si="3"/>
-        <v>525.29123594581142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>478.99823594581153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" ref="B69" si="6">0.475952381*A69^2-1937.6138095236*A69+1972141.58142839</f>
-        <v>223.49138521566056</v>
+        <f t="shared" ref="B69" si="8">0.475952381*A69^2-1937.6138095236*A69+1972141.58142839</f>
+        <v>175.84948122501373</v>
       </c>
       <c r="C69" s="11">
         <f t="shared" si="3"/>
-        <v>512.22262116147203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>468.01771717082522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="B70" s="10">
-        <v>210.4</v>
+        <v>166.37</v>
       </c>
       <c r="C70" s="11">
         <f t="shared" si="3"/>
-        <v>499.13123594581145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>458.53823594581149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="B71" s="12">
-        <f t="shared" ref="B71" si="7">0.475952381*A71^2-1937.6138095236*A71+1972141.58142839</f>
-        <v>197.76662369631231</v>
+        <f t="shared" ref="B71" si="9">0.475952381*A71^2-1937.6138095236*A71+1972141.58142839</f>
+        <v>157.73995780176483</v>
       </c>
       <c r="C71" s="11">
         <f t="shared" si="3"/>
-        <v>486.49785964212379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>449.90819374757632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="B72" s="10">
-        <v>186.83</v>
+        <v>149.96</v>
       </c>
       <c r="C72" s="11">
         <f t="shared" si="3"/>
-        <v>475.56123594581152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>442.12823594581153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="B73" s="12">
-        <f t="shared" ref="B73" si="8">0.475952381*A73^2-1937.6138095236*A73+1972141.58142839</f>
-        <v>175.84948122501373</v>
+        <f t="shared" ref="B73" si="10">0.475952381*A73^2-1937.6138095236*A73+1972141.58142839</f>
+        <v>143.4380534265656</v>
       </c>
       <c r="C73" s="11">
         <f t="shared" si="3"/>
-        <v>464.58071717082521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>435.60628937237709</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="B74" s="10">
-        <v>166.37</v>
+        <v>137.68</v>
       </c>
       <c r="C74" s="11">
         <f t="shared" si="3"/>
-        <v>455.10123594581148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>2027</v>
-      </c>
-      <c r="B75" s="12">
-        <f t="shared" ref="B75" si="9">0.475952381*A75^2-1937.6138095236*A75+1972141.58142839</f>
-        <v>157.73995780176483</v>
-      </c>
-      <c r="C75" s="11">
-        <f t="shared" si="3"/>
-        <v>446.47119374757631</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2028</v>
-      </c>
-      <c r="B76" s="10">
-        <v>149.96</v>
-      </c>
-      <c r="C76" s="11">
-        <f t="shared" si="3"/>
-        <v>438.69123594581151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B77" s="12">
-        <f t="shared" ref="B77" si="10">0.475952381*A77^2-1937.6138095236*A77+1972141.58142839</f>
-        <v>143.4380534265656</v>
-      </c>
-      <c r="C77" s="11">
-        <f t="shared" si="3"/>
-        <v>432.16928937237708</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2030</v>
-      </c>
-      <c r="B78" s="10">
-        <v>137.68</v>
-      </c>
-      <c r="C78" s="11">
-        <f t="shared" si="3"/>
-        <v>426.41123594581148</v>
+        <v>429.8482359458115</v>
       </c>
     </row>
   </sheetData>
@@ -2315,10 +2391,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,217 +2402,217 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>Calculations!A58</f>
+        <f>Calculations!A54</f>
         <v>2010</v>
       </c>
       <c r="B2">
-        <f>Calculations!C58*1000</f>
-        <v>721770</v>
+        <f>Calculations!C54*1000</f>
+        <v>725207</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>Calculations!A59</f>
+        <f>Calculations!A55</f>
         <v>2011</v>
       </c>
       <c r="B3" s="9">
-        <f>Calculations!C59*1000</f>
-        <v>697960.71447732858</v>
+        <f>Calculations!C55*1000</f>
+        <v>701397.71447732858</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>Calculations!A60</f>
+        <f>Calculations!A56</f>
         <v>2012</v>
       </c>
       <c r="B4" s="9">
-        <f>Calculations!C60*1000</f>
-        <v>675103.33371672779</v>
+        <f>Calculations!C56*1000</f>
+        <v>678540.33371672779</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>Calculations!A61</f>
+        <f>Calculations!A57</f>
         <v>2013</v>
       </c>
       <c r="B5" s="9">
-        <f>Calculations!C61*1000</f>
-        <v>653197.8577179648</v>
+        <f>Calculations!C57*1000</f>
+        <v>656634.8577179648</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>Calculations!A62</f>
+        <f>Calculations!A58</f>
         <v>2014</v>
       </c>
       <c r="B6" s="9">
-        <f>Calculations!C62*1000</f>
-        <v>632244.28648150526</v>
+        <f>Calculations!C58*1000</f>
+        <v>635681.28648150526</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>Calculations!A63</f>
+        <f>Calculations!A59</f>
         <v>2015</v>
       </c>
       <c r="B7" s="9">
-        <f>Calculations!C63*1000</f>
-        <v>612242.62000688352</v>
+        <f>Calculations!C59*1000</f>
+        <v>615679.62000688352</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>Calculations!A64</f>
+        <f>Calculations!A60</f>
         <v>2016</v>
       </c>
       <c r="B8" s="9">
-        <f>Calculations!C64*1000</f>
-        <v>593192.85829409957</v>
+        <f>Calculations!C60*1000</f>
+        <v>596629.85829409957</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>Calculations!A65</f>
+        <f>Calculations!A61</f>
         <v>2017</v>
       </c>
       <c r="B9" s="9">
-        <f>Calculations!C65*1000</f>
-        <v>575095.00134338625</v>
+        <f>Calculations!C61*1000</f>
+        <v>578532.00134338625</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>Calculations!A66</f>
+        <f>Calculations!A62</f>
         <v>2018</v>
       </c>
       <c r="B10" s="9">
-        <f>Calculations!C66*1000</f>
-        <v>558561.23594581138</v>
+        <f>Calculations!C62*1000</f>
+        <v>561998.2359458115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>Calculations!A67</f>
+        <f>Calculations!A63</f>
         <v>2019</v>
       </c>
       <c r="B11" s="9">
-        <f>Calculations!C67*1000</f>
-        <v>541755.00172863714</v>
+        <f>Calculations!C63*1000</f>
+        <v>545192.00172863714</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>Calculations!A68</f>
+        <f>Calculations!A64</f>
         <v>2020</v>
       </c>
       <c r="B12" s="9">
-        <f>Calculations!C68*1000</f>
-        <v>525291.23594581138</v>
+        <f>Calculations!C64*1000</f>
+        <v>528728.2359458115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>Calculations!A69</f>
+        <f>Calculations!A65</f>
         <v>2021</v>
       </c>
       <c r="B13" s="9">
-        <f>Calculations!C69*1000</f>
-        <v>512222.62116147205</v>
+        <f>Calculations!C65*1000</f>
+        <v>515659.62116147205</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>Calculations!A70</f>
+        <f>Calculations!A66</f>
         <v>2022</v>
       </c>
       <c r="B14" s="9">
-        <f>Calculations!C70*1000</f>
-        <v>499131.23594581144</v>
+        <f>Calculations!C66*1000</f>
+        <v>502568.2359458115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>Calculations!A71</f>
+        <f>Calculations!A67</f>
         <v>2023</v>
       </c>
       <c r="B15" s="9">
-        <f>Calculations!C71*1000</f>
-        <v>486497.8596421238</v>
+        <f>Calculations!C67*1000</f>
+        <v>489934.8596421238</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>Calculations!A72</f>
+        <f>Calculations!A68</f>
         <v>2024</v>
       </c>
       <c r="B16" s="9">
-        <f>Calculations!C72*1000</f>
-        <v>475561.2359458115</v>
+        <f>Calculations!C68*1000</f>
+        <v>478998.23594581155</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>Calculations!A73</f>
+        <f>Calculations!A69</f>
         <v>2025</v>
       </c>
       <c r="B17" s="9">
-        <f>Calculations!C73*1000</f>
-        <v>464580.71717082523</v>
+        <f>Calculations!C69*1000</f>
+        <v>468017.71717082523</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>Calculations!A74</f>
+        <f>Calculations!A70</f>
         <v>2026</v>
       </c>
       <c r="B18" s="9">
-        <f>Calculations!C74*1000</f>
-        <v>455101.2359458115</v>
+        <f>Calculations!C70*1000</f>
+        <v>458538.2359458115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>Calculations!A75</f>
+        <f>Calculations!A71</f>
         <v>2027</v>
       </c>
       <c r="B19" s="9">
-        <f>Calculations!C75*1000</f>
-        <v>446471.19374757633</v>
+        <f>Calculations!C71*1000</f>
+        <v>449908.19374757633</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>Calculations!A76</f>
+        <f>Calculations!A72</f>
         <v>2028</v>
       </c>
       <c r="B20" s="9">
-        <f>Calculations!C76*1000</f>
-        <v>438691.2359458115</v>
+        <f>Calculations!C72*1000</f>
+        <v>442128.23594581155</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>Calculations!A77</f>
+        <f>Calculations!A73</f>
         <v>2029</v>
       </c>
       <c r="B21" s="9">
-        <f>Calculations!C77*1000</f>
-        <v>432169.2893723771</v>
+        <f>Calculations!C73*1000</f>
+        <v>435606.2893723771</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>Calculations!A78</f>
+        <f>Calculations!A74</f>
         <v>2030</v>
       </c>
       <c r="B22" s="9">
-        <f>Calculations!C78*1000</f>
-        <v>426411.2359458115</v>
+        <f>Calculations!C74*1000</f>
+        <v>429848.2359458115</v>
       </c>
     </row>
   </sheetData>
